--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf14.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf14.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
+          <t>Decreto nº 1533/1995 - CNUDM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,22 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Os Estados devem promover o desenvolvimento e a transferência da ciência e tecnologia marinhas segundo modalidades e condições equitativas e razoáveis.</t>
+          <t>Os Estados devem promover o desenvolvimento da capacidade científica e tecnológica marinha, particularmente dos Estados em desenvolvimento, visando acelerar o desenvolvimento econômico e social destes.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A transferência de tecnologia marinha deve ocorrer exclusivamente sob regras de livre mercado, sem a necessidade de condições equitativas ou razoáveis.</t>
+          <t>A promoção do desenvolvimento da capacidade científica marinha deve ser restrita aos Estados que já possuem tecnologia avançada, excluindo-se os Estados em desenvolvimento para evitar dependência econômica.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 266, parágrafo 1º, exige que a promoção do desenvolvimento e transferência ocorra em condições equitativas e razoáveis.</t>
+          <t>Conforme o **art. 266, parágrafo 2**, os Estados devem promover o desenvolvimento da capacidade tecnológica, particularmente dos Estados em desenvolvimento, tendo em vista acelerar seu desenvolvimento econômico e social.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,7 +512,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
+          <t>Decreto nº 1533/1995 - CNUDM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -522,22 +522,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ao promover a cooperação tecnológica, os Estados devem ter em devida conta os interesses legítimos dos possuidores, fornecedores e recebedores de tecnologia.</t>
+          <t>Ao promover a cooperação para o desenvolvimento e transferência de tecnologia marinha, os Estados devem ter em devida conta todos os interesses legítimos, incluindo os direitos e deveres de possuidores, fornecedores e recebedores.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A cooperação tecnológica deve priorizar exclusivamente os interesses dos recebedores, podendo desconsiderar os direitos dos possuidores da tecnologia.</t>
+          <t>Ao promover a cooperação tecnológica, os Estados devem priorizar exclusivamente os interesses dos recebedores de tecnologia, desconsiderando os direitos dos possuidores e fornecedores.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 267 determina que todos os interesses legítimos, incluindo os de possuidores e fornecedores, sejam levados em conta.</t>
+          <t>De acordo com o **art. 267**, os Estados devem ter em devida conta todos os interesses legítimos, incluindo os direitos e deveres dos possuidores, fornecedores e recebedores de tecnologia marinha.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
+          <t>Decreto nº 1533/1995 - CNUDM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,22 +556,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Uma das medidas para atingir os objetivos de transferência de tecnologia é promover o intercâmbio de cientistas e peritos.</t>
+          <t>A cooperação internacional para o desenvolvimento e transferência de tecnologia marinha deve ser efetuada através de programas bilaterais, regionais ou multilaterais existentes ou novos.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>O intercâmbio de cientistas e peritos é vedado nas medidas de transferência de tecnologia para evitar a fuga de cérebros ou espionagem industrial.</t>
+          <t>A cooperação internacional para transferência de tecnologia marinha deve ocorrer exclusivamente por meio de novos programas multilaterais, sendo vedado o uso de programas bilaterais existentes.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 269, alínea 'd', lista expressamente a promoção do intercâmbio de cientistas e peritos como uma medida necessária.</t>
+          <t>Segundo o **art. 270**, a cooperação internacional deve ser efetuada através de programas bilaterais, regionais ou multilaterais existentes, bem como através de programas ampliados e de novos programas.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,7 +580,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
+          <t>Decreto nº 1533/1995 - CNUDM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -590,22 +590,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Autoridade deve assegurar que nacionais de Estados em desenvolvimento sejam admitidos para fins de estágio como membros do pessoal técnico e de gestão.</t>
+          <t>Os Estados devem cooperar com a Autoridade para facilitar a transferência de conhecimentos especializados e tecnologia marinha relativos às atividades na Área aos Estados em desenvolvimento.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A Autoridade é proibida de admitir nacionais de Estados em desenvolvimento para estágios, devendo contratar apenas pessoal já plenamente qualificado.</t>
+          <t>A cooperação dos Estados com a Autoridade deve focar em impedir a transferência de tecnologia relativa às atividades na Área para a Empresa ou para Estados em desenvolvimento.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 274, alínea 'a', estabelece o dever da Autoridade de assegurar a admissão para fins de estágio.</t>
+          <t>O texto do **art. 273** estabelece que os Estados devem cooperar para encorajar e facilitar a transferência de tecnologia relativa às atividades na Área aos Estados em desenvolvimento e à Empresa.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,7 +614,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
+          <t>Decreto nº 1533/1995 - CNUDM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,22 +624,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Os Estados devem promover o estabelecimento de centros nacionais de investigação nos Estados costeiros em desenvolvimento para estimular a pesquisa local.</t>
+          <t>A Autoridade deve assegurar que nacionais dos Estados em desenvolvimento sejam admitidos para fins de estágio como membros do pessoal de gestão, investigação e técnico.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A criação de centros nacionais de investigação deve ser evitada nos Estados em desenvolvimento para não duplicar esforços já realizados pelos países desenvolvidos.</t>
+          <t>A Autoridade deve assegurar que o estágio em suas atividades de gestão e investigação seja reservado exclusivamente para nacionais dos Estados que são os maiores financiadores da Convenção.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 275 promove o estabelecimento de centros nacionais para aumentar a capacidade dos Estados em desenvolvimento.</t>
+          <t>Conforme o **art. 274, alínea 'a'**, a Autoridade deve assegurar que nacionais dos Estados em desenvolvimento sejam admitidos para fins de estágio, com base no princípio da distribuição geográfica equitativa.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,7 +648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
+          <t>Decreto nº 1533/1995 - CNUDM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -658,22 +658,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A documentação técnica relativa a equipamentos na Área deve ser posta à disposição de todos os Estados, em particular dos em desenvolvimento que a solicitem.</t>
+          <t>Os Estados devem promover o estabelecimento de centros nacionais de investigação científica e tecnológica marinha, especialmente nos Estados costeiros em desenvolvimento.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A documentação técnica de equipamentos usados na Área é confidencial e não pode ser compartilhada com Estados em desenvolvimento sob nenhuma circunstância.</t>
+          <t>É vedado aos Estados promover o estabelecimento de centros nacionais de investigação nos Estados costeiros em desenvolvimento, devendo centralizar a pesquisa em organismos internacionais.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 274, alínea 'b', determina que a documentação técnica seja posta à disposição dos Estados que necessitem.</t>
+          <t>Segundo o **art. 275, parágrafo 1**, os Estados devem promover o estabelecimento de centros nacionais, em especial nos Estados costeiros em desenvolvimento, a fim de estimular a investigação científica marinha.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,7 +682,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
+          <t>Decreto nº 1533/1995 - CNUDM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -692,22 +692,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Uma das funções dos centros regionais é a disseminação imediata dos resultados da investigação científica por meio de publicações de fácil acesso.</t>
+          <t>As funções dos centros regionais incluem programas de formação e ensino sobre diversos aspectos, como biologia marinha, oceanografia, hidrografia e tecnologia de dessalinização.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Os centros regionais devem manter os resultados das investigações sob sigilo absoluto, sendo proibida a sua disseminação pública imediata.</t>
+          <t>As funções dos centros regionais limitam-se à coleta de dados estatísticos, sendo vedada a realização de programas de formação, ensino ou estudos sobre tecnologia de dessalinização.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Artigo 277, alínea 'f', lista a disseminação imediata dos resultados como uma função dos centros regionais.</t>
+          <t>A lista de funções constante no **art. 277, alínea 'a'**, inclui expressamente programas de formação e ensino em biologia marinha, oceanografia, hidrografia e tecnologia de dessalinização, entre outros.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,7 +716,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
+          <t>Decreto nº 1533/1995 - CNUDM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -726,22 +726,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>As funções dos centros regionais incluem a organização de conferências, seminários e simpósios regionais.</t>
+          <t>Uma das funções dos centros regionais é a divulgação das políticas nacionais sobre transferência de tecnologia marinha e o estudo comparativo sistemático dessas políticas.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A organização de eventos como conferências e seminários foge ao escopo técnico dos centros regionais, que devem focar apenas em pesquisa laboratorial.</t>
+          <t>Os centros regionais devem manter em sigilo as políticas nacionais sobre transferência de tecnologia, sendo proibida a divulgação ou o estudo comparativo dessas políticas.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Artigo 277, alínea 'd', inclui a organização de conferências e seminários entre as funções dos centros.</t>
+          <t>De acordo com o **art. 277, alínea 'g'**, as funções compreendem a divulgação das políticas nacionais sobre transferência de tecnologia marinha e o estudo comparativo sistemático dessas políticas.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,7 +750,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Decreto nº 1533/1995 - CNUDM.</t>
+          <t>Decreto nº 1533/1995 - CNUDM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,22 +760,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parte XIV</t>
+          <t>Parte XVI - Desenvolvimento e Transferência de Tecnologia Marinha</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>As organizações internacionais competentes devem cooperar entre si para assegurar o cumprimento efetivo das funções decorrentes da Parte XIV.</t>
+          <t>As organizações internacionais competentes mencionadas na Parte XVI e na Parte XIII devem cooperar entre si para assegurar o cumprimento efetivo de suas funções.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cada organização internacional deve atuar isoladamente na transferência de tecnologia, sendo desencorajada a cooperação entre elas para evitar burocracia.</t>
+          <t>As organizações internacionais competentes devem atuar de forma isolada e independente, evitando a cooperação entre si para não gerar conflito de competências na aplicação da Parte XVI.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O Artigo 278 obriga as organizações internacionais a tomarem medidas em estreita cooperação entre si.</t>
+          <t>O texto do **art. 278** determina que as organizações internacionais devem tomar medidas para assegurarem, diretamente ou em estreita cooperação entre si, o cumprimento efetivo das funções.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
